--- a/remote_work_data/us_occupation_homework.xlsx
+++ b/remote_work_data/us_occupation_homework.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Estimated percentage of jobs that can be done at home by occupation category</t>
+  </si>
   <si>
     <t>Computer and mathematical</t>
   </si>
@@ -83,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -92,6 +98,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -333,180 +346,192 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="49.57"/>
+    <col customWidth="1" min="2" max="2" width="88.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.0</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.98</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.97</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.88</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.87</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.76</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.65</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.61</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.54</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.37</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.28</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.26</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.06</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.05</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.03</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.02</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.01</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.0</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.0</v>
       </c>
     </row>
